--- a/data_migration/exports/productitems.xlsx
+++ b/data_migration/exports/productitems.xlsx
@@ -481,12 +481,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-09-15 22:24:34.044937-04:00</t>
+          <t>2022-09-15 22:24:34.044937</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2022-09-15 22:24:34.044937-04:00</t>
+          <t>2022-09-15 22:24:34.044937</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -511,12 +511,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-09-18 16:06:18.902288-04:00</t>
+          <t>2022-09-18 16:06:18.902288</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-09-18 16:06:18.902288-04:00</t>
+          <t>2022-09-18 16:06:18.902288</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -541,12 +541,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-09-19 20:37:20.427556-04:00</t>
+          <t>2022-09-19 20:37:20.427556</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2022-09-19 20:37:20.427556-04:00</t>
+          <t>2022-09-19 20:37:20.427556</t>
         </is>
       </c>
       <c r="D4" t="n">
